--- a/biology/Botanique/Hyacinthoides/Hyacinthoides.xlsx
+++ b/biology/Botanique/Hyacinthoides/Hyacinthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyacinthoides est un genre de plantes herbacées monocotylédones. Il appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique le place dans la famille des Hyacinthaceae (ou optionnellement dans celle des Asparagaceae).
 C'est le genre de la jacinthe des bois. Cette plante rustique et sans problème s'établit très facilement, et convient aux jardins semi-sauvages où son caractère envahissant produit un effet naturel et champêtre.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyacinthoides aristidis (Coss.) Rothm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hyacinthoides aristidis (Coss.) Rothm.
 Hyacinthoides hispanica (Mill.) Rothm. - Jacinthe d'Espagne
 Hyacinthoides hispanica subsp. algeriensis (Batt.) Förther &amp; Podlech
 Hyacinthoides hispanica subsp. hispanica - autre taxon pour la Jacinthe d'Espagne
@@ -526,11 +540,7 @@
 Hyacinthoides mauritanica subsp. vincentina (Link &amp; Hoffmanns.) S.Ortiz, Buján &amp; Rodr.Oubiña
 Hyacinthoides non-scripta (L.) Chouard ex Rothm. - Jacinthe des bois
 Hyacinthoides paivae S.Ortiz &amp; Rodr.Oubiña
-Hyacinthoides reverchonii (Degen &amp; Hervier) Speta
-Hybride
-Hyacinthoides ×massartiana Geerinck est un robuste hybride entre Hyacinthoides non-scripta et Hyacinthoides hispanica subsp. hispanica.
-Cet hybride est naturalisé çà et là, comme dans l'ouest des Pays-Bas. Comme il est fertile et peut se croiser en retour, il constitue une menace pour la jacinthe des bois.
-</t>
+Hyacinthoides reverchonii (Degen &amp; Hervier) Speta</t>
         </is>
       </c>
     </row>
@@ -555,10 +565,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hybride</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyacinthoides ×massartiana Geerinck est un robuste hybride entre Hyacinthoides non-scripta et Hyacinthoides hispanica subsp. hispanica.
+Cet hybride est naturalisé çà et là, comme dans l'ouest des Pays-Bas. Comme il est fertile et peut se croiser en retour, il constitue une menace pour la jacinthe des bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyacinthoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyacinthoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hyacinthoides est en grande partie synonyme au genre rejeté Endymion.</t>
         </is>
